--- a/Sheet4输出数据.xlsx
+++ b/Sheet4输出数据.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,13 +469,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="C2" t="n">
-        <v>6.324555289747898</v>
+        <v>-0.06266472013417522</v>
       </c>
       <c r="D2" t="n">
-        <v>2.717711852517444</v>
+        <v>-0.009014771559735547</v>
       </c>
     </row>
     <row r="3">
@@ -483,13 +483,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.1581201219866303</v>
+        <v>0.0154627231499913</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8333820855262589</v>
+        <v>0.06931252068405255</v>
       </c>
     </row>
     <row r="4">
@@ -497,13 +497,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.1581123425668698</v>
+        <v>1.512905386096513</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8333942330767746</v>
+        <v>1.457909352826684</v>
       </c>
     </row>
     <row r="5">
@@ -511,13 +511,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.1579632370214608</v>
+        <v>-0.07568596068153623</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8336269879149842</v>
+        <v>-0.02213396123297943</v>
       </c>
     </row>
     <row r="6">
@@ -525,13 +525,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.1581214185565904</v>
+        <v>1.122268169675681</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8333800608976564</v>
+        <v>1.114396270591238</v>
       </c>
     </row>
     <row r="7">
@@ -539,13 +539,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.1580021341202631</v>
+        <v>0.8358008776337379</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8335662826729969</v>
+        <v>0.854628815587452</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.1580306586593849</v>
+        <v>-1.325725053228198</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8335217594804328</v>
+        <v>-1.379707712812331</v>
       </c>
     </row>
     <row r="9">
@@ -567,13 +567,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.158245889272758</v>
+        <v>-0.1082390620499389</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8331856475092316</v>
+        <v>-0.05501364653735211</v>
       </c>
     </row>
     <row r="10">
@@ -581,13 +581,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.1581246599814906</v>
+        <v>-0.9350878368073658</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8333749992800864</v>
+        <v>-0.9327238930705357</v>
       </c>
     </row>
     <row r="11">
@@ -595,13 +595,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.1582069921739556</v>
+        <v>1.258991195422972</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8332464121240147</v>
+        <v>1.2359876160598</v>
       </c>
     </row>
     <row r="12">
@@ -609,13 +609,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.1579885201356823</v>
+        <v>1.447799183359707</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8335875305841085</v>
+        <v>1.401477036015104</v>
       </c>
     </row>
     <row r="13">
@@ -623,13 +623,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.1579697198712612</v>
+        <v>0.9920557642020705</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8336168710317643</v>
+        <v>0.9971773778525572</v>
       </c>
     </row>
     <row r="14">
@@ -637,13 +637,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.1580150998198639</v>
+        <v>-0.7788329502390332</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8335460454892597</v>
+        <v>-0.7601379370949723</v>
       </c>
     </row>
     <row r="15">
@@ -651,13 +651,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.1581914333344346</v>
+        <v>-0.8178966718811164</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8332707153141681</v>
+        <v>-0.8029695682980156</v>
       </c>
     </row>
     <row r="16">
@@ -665,13 +665,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.1581953230443149</v>
+        <v>-0.6746630258601448</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8332646396588785</v>
+        <v>-0.6469192500599854</v>
       </c>
     </row>
     <row r="17">
@@ -679,13 +679,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.158181060774754</v>
+        <v>2.105371831001441</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8332869165980212</v>
+        <v>1.957396222732898</v>
       </c>
     </row>
     <row r="18">
@@ -693,13 +693,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.1579042430882772</v>
+        <v>0.5102698639497115</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8337190394772133</v>
+        <v>0.5507171351242042</v>
       </c>
     </row>
     <row r="19">
@@ -707,13 +707,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.1580630729083868</v>
+        <v>-0.8699816340705606</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8334711587632642</v>
+        <v>-0.8604027120929645</v>
       </c>
     </row>
     <row r="20">
@@ -721,13 +721,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.1582005093241552</v>
+        <v>-0.01709037821841134</v>
       </c>
       <c r="D20" t="n">
-        <v>0.833256538637645</v>
+        <v>0.03675652336277065</v>
       </c>
     </row>
     <row r="21">
@@ -735,13 +735,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.15811558399177</v>
+        <v>-0.7723223299653527</v>
       </c>
       <c r="D21" t="n">
-        <v>0.8333891716434544</v>
+        <v>-0.7530193971178514</v>
       </c>
     </row>
     <row r="22">
@@ -749,13 +749,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.1581907850494546</v>
+        <v>-0.6290886839443811</v>
       </c>
       <c r="D22" t="n">
-        <v>0.8332717279141637</v>
+        <v>-0.5978343135706845</v>
       </c>
     </row>
     <row r="23">
@@ -763,13 +763,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.1581765227798937</v>
+        <v>-0.5574718609338952</v>
       </c>
       <c r="D23" t="n">
-        <v>0.8332940044476828</v>
+        <v>-0.5212399548468711</v>
       </c>
     </row>
     <row r="24">
@@ -777,13 +777,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.1581693916451133</v>
+        <v>-0.4858550379234096</v>
       </c>
       <c r="D24" t="n">
-        <v>0.8333051422364196</v>
+        <v>-0.4452922955498105</v>
       </c>
     </row>
     <row r="25">
@@ -791,13 +791,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.1581622605103329</v>
+        <v>0.4972486234023503</v>
       </c>
       <c r="D25" t="n">
-        <v>0.8333162797065049</v>
+        <v>0.5383578179713544</v>
       </c>
     </row>
     <row r="26">
@@ -805,13 +805,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.1580643694783469</v>
+        <v>-0.4988762784707705</v>
       </c>
       <c r="D26" t="n">
-        <v>0.8334691345977964</v>
+        <v>-0.4590534729627949</v>
       </c>
     </row>
     <row r="27">
@@ -819,13 +819,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.1581635570802929</v>
+        <v>-1.742404750743751</v>
       </c>
       <c r="D27" t="n">
-        <v>0.8333142547356442</v>
+        <v>-1.883720230488423</v>
       </c>
     </row>
     <row r="28">
@@ -833,13 +833,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.1582873795114805</v>
+        <v>-1.540575522259655</v>
       </c>
       <c r="D28" t="n">
-        <v>0.8331208214623543</v>
+        <v>-1.635828518946615</v>
       </c>
     </row>
     <row r="29">
@@ -847,13 +847,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.1582672826770992</v>
+        <v>0.8748645992758207</v>
       </c>
       <c r="D29" t="n">
-        <v>0.833152222927155</v>
+        <v>0.8904625655917064</v>
       </c>
     </row>
     <row r="30">
@@ -861,13 +861,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.1580267689495046</v>
+        <v>-0.7788329502390332</v>
       </c>
       <c r="D30" t="n">
-        <v>0.8335278311246408</v>
+        <v>-0.7601379370949723</v>
       </c>
     </row>
     <row r="31">
@@ -875,13 +875,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.1581914333344346</v>
+        <v>-0.5379400001128536</v>
       </c>
       <c r="D31" t="n">
-        <v>0.8332707153141681</v>
+        <v>-0.5004633968003078</v>
       </c>
     </row>
     <row r="32">
@@ -889,13 +889,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.1581674467901732</v>
+        <v>-1.455937458701808</v>
       </c>
       <c r="D32" t="n">
-        <v>0.8333081797598618</v>
+        <v>-1.534008990163345</v>
       </c>
     </row>
     <row r="33">
@@ -903,13 +903,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.1582588549723588</v>
+        <v>0.5753760666865169</v>
       </c>
       <c r="D33" t="n">
-        <v>0.833165390529416</v>
+        <v>0.6122746659432485</v>
       </c>
     </row>
     <row r="34">
@@ -917,13 +917,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.1580565900585864</v>
+        <v>0.1521857488972823</v>
       </c>
       <c r="D34" t="n">
-        <v>0.833481279432765</v>
+        <v>0.2048176892580093</v>
       </c>
     </row>
     <row r="35">
@@ -931,13 +931,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.158098728582289</v>
+        <v>1.669160272664845</v>
       </c>
       <c r="D35" t="n">
-        <v>0.8334154903782152</v>
+        <v>1.592061325614063</v>
       </c>
     </row>
     <row r="36">
@@ -945,13 +945,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.1579476781819398</v>
+        <v>0.9464814222863066</v>
       </c>
       <c r="D36" t="n">
-        <v>0.8336512673625015</v>
+        <v>0.9558161377181149</v>
       </c>
     </row>
     <row r="37">
@@ -959,13 +959,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.1580196378147242</v>
+        <v>1.916563843064705</v>
       </c>
       <c r="D37" t="n">
-        <v>0.8335389622264789</v>
+        <v>1.800877934903918</v>
       </c>
     </row>
     <row r="38">
@@ -973,13 +973,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.1579230433526983</v>
+        <v>-0.4402806960076457</v>
       </c>
       <c r="D38" t="n">
-        <v>0.8336897067258073</v>
+        <v>-0.397292491692509</v>
       </c>
     </row>
     <row r="39">
@@ -987,13 +987,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.1581577225154726</v>
+        <v>0.380057458476101</v>
       </c>
       <c r="D39" t="n">
-        <v>0.8333233670215692</v>
+        <v>0.4263950393317534</v>
       </c>
     </row>
     <row r="40">
@@ -1001,13 +1001,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.1580760386079876</v>
+        <v>-0.3426213919024377</v>
       </c>
       <c r="D40" t="n">
-        <v>0.8334509166350419</v>
+        <v>-0.2952835992438645</v>
       </c>
     </row>
     <row r="41">
@@ -1015,27 +1015,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.158147998240772</v>
+        <v>-1.364788774870281</v>
       </c>
       <c r="D41" t="n">
-        <v>0.8333385536908121</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>1981</v>
-      </c>
-      <c r="C42" t="n">
-        <v>-0.1582497789826382</v>
-      </c>
-      <c r="D42" t="n">
-        <v>0.8331795705259845</v>
+        <v>-1.425705821894878</v>
       </c>
     </row>
   </sheetData>
@@ -1049,7 +1035,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1074,10 +1060,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.8240303027685151</v>
+        <v>1.240215995388811</v>
       </c>
     </row>
     <row r="3">
@@ -1085,10 +1071,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.6985415052407346</v>
+        <v>-0.7893104427533881</v>
       </c>
     </row>
     <row r="4">
@@ -1096,10 +1082,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.1275058780575255</v>
+        <v>-1.019859625281459</v>
       </c>
     </row>
     <row r="5">
@@ -1107,10 +1093,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5840343329715467</v>
+        <v>0.5660249880282021</v>
       </c>
     </row>
     <row r="6">
@@ -1118,10 +1104,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.04050528819962602</v>
+        <v>-0.441135105433882</v>
       </c>
     </row>
     <row r="7">
@@ -1129,10 +1115,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="C7" t="n">
-        <v>1.070707110327014</v>
+        <v>0.7214826069180956</v>
       </c>
     </row>
     <row r="8">
@@ -1140,10 +1126,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2287018931099737</v>
+        <v>0.8313183003637008</v>
       </c>
     </row>
     <row r="9">
@@ -1151,10 +1137,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01471208073788732</v>
+        <v>0.008010263334228622</v>
       </c>
     </row>
     <row r="10">
@@ -1162,10 +1148,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.02104547124826531</v>
+        <v>0.2190095950431817</v>
       </c>
     </row>
     <row r="11">
@@ -1173,10 +1159,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="C11" t="n">
-        <v>1.238612783287767</v>
+        <v>0.4984026003290696</v>
       </c>
     </row>
     <row r="12">
@@ -1184,10 +1170,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.08398221387882014</v>
+        <v>-0.6283386092908567</v>
       </c>
     </row>
     <row r="13">
@@ -1195,10 +1181,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="C13" t="n">
-        <v>0.08927266071314376</v>
+        <v>-0.2330561344244701</v>
       </c>
     </row>
     <row r="14">
@@ -1206,10 +1192,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="C14" t="n">
-        <v>3.485723994095122</v>
+        <v>5.510958764821891</v>
       </c>
     </row>
     <row r="15">
@@ -1217,10 +1203,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1061490073793928</v>
+        <v>0.3529777411542891</v>
       </c>
     </row>
     <row r="16">
@@ -1228,10 +1214,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="C16" t="n">
-        <v>-1.799235905429363</v>
+        <v>-1.516672402961248</v>
       </c>
     </row>
     <row r="17">
@@ -1239,10 +1225,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.02240638635349633</v>
+        <v>-1.006824188428451</v>
       </c>
     </row>
     <row r="18">
@@ -1250,10 +1236,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="C18" t="n">
-        <v>2.308780541539369</v>
+        <v>1.274435304464272</v>
       </c>
     </row>
     <row r="19">
@@ -1261,10 +1247,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8305854776339532</v>
+        <v>1.282596951817194</v>
       </c>
     </row>
     <row r="20">
@@ -1272,10 +1258,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="C20" t="n">
-        <v>-1.449651395368154</v>
+        <v>-1.555017184141035</v>
       </c>
     </row>
     <row r="21">
@@ -1283,10 +1269,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.02762526964667201</v>
+        <v>0.05157541135079989</v>
       </c>
     </row>
     <row r="22">
@@ -1294,10 +1280,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.08730672153041084</v>
+        <v>0.05959534116147069</v>
       </c>
     </row>
     <row r="23">
@@ -1305,10 +1291,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.2447528391466705</v>
+        <v>-0.1871349183510535</v>
       </c>
     </row>
     <row r="24">
@@ -1316,10 +1302,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.02541314813099626</v>
+        <v>0.03043095608589138</v>
       </c>
     </row>
     <row r="25">
@@ -1327,10 +1313,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="C25" t="n">
-        <v>1.393546957723506</v>
+        <v>0.6022435809933739</v>
       </c>
     </row>
     <row r="26">
@@ -1338,10 +1324,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.6923175284933681</v>
+        <v>-0.4252082701322616</v>
       </c>
     </row>
     <row r="27">
@@ -1349,10 +1335,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="C27" t="n">
-        <v>0.4765309751437074</v>
+        <v>1.13157598246531</v>
       </c>
     </row>
     <row r="28">
@@ -1360,10 +1346,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="C28" t="n">
-        <v>0.7760826080619865</v>
+        <v>1.375648174143941</v>
       </c>
     </row>
     <row r="29">
@@ -1371,10 +1357,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="C29" t="n">
-        <v>-1.42052917694786</v>
+        <v>-2.05386738582989</v>
       </c>
     </row>
     <row r="30">
@@ -1382,10 +1368,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.329678351261628</v>
+        <v>-0.1615212094865377</v>
       </c>
     </row>
     <row r="31">
@@ -1393,10 +1379,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.03913992989756586</v>
+        <v>0.001311220110581996</v>
       </c>
     </row>
     <row r="32">
@@ -1404,10 +1390,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="C32" t="n">
-        <v>0.5288099185483154</v>
+        <v>1.1314434458608</v>
       </c>
     </row>
     <row r="33">
@@ -1415,10 +1401,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="C33" t="n">
-        <v>0.2042686595876143</v>
+        <v>-0.00901808713553239</v>
       </c>
     </row>
     <row r="34">
@@ -1426,10 +1412,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.02483826853387197</v>
+        <v>-0.1187336872263477</v>
       </c>
     </row>
     <row r="35">
@@ -1437,10 +1423,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.1896177004547576</v>
+        <v>-1.507178094126839</v>
       </c>
     </row>
     <row r="36">
@@ -1448,10 +1434,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.6030420072699303</v>
+        <v>-1.711367375178165</v>
       </c>
     </row>
     <row r="37">
@@ -1459,10 +1445,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.3715203136983566</v>
+        <v>-1.178204399071344</v>
       </c>
     </row>
     <row r="38">
@@ -1470,10 +1456,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.4381377989779641</v>
+        <v>-0.3510310509030677</v>
       </c>
     </row>
     <row r="39">
@@ -1481,10 +1467,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.3225743405556111</v>
+        <v>-0.5102595633874309</v>
       </c>
     </row>
     <row r="40">
@@ -1492,10 +1478,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.004967966796288623</v>
+        <v>0.04316510743921682</v>
       </c>
     </row>
     <row r="41">
@@ -1503,21 +1489,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.07124391495544123</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>1981</v>
-      </c>
-      <c r="C42" t="n">
-        <v>-0.009506285203879901</v>
+        <v>0.2930000073393806</v>
       </c>
     </row>
   </sheetData>
@@ -4019,7 +3994,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4044,10 +4019,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.07760595366452962</v>
+        <v>-0.2204479217292086</v>
       </c>
     </row>
     <row r="3">
@@ -4055,10 +4030,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5778934574261492</v>
+        <v>0.3905281811410168</v>
       </c>
     </row>
     <row r="4">
@@ -4066,10 +4041,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1956613319030732</v>
+        <v>-0.2551887766847514</v>
       </c>
     </row>
     <row r="5">
@@ -4077,10 +4052,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1869198574051881</v>
+        <v>0.1160056943454112</v>
       </c>
     </row>
     <row r="6">
@@ -4088,10 +4063,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4624383611011018</v>
+        <v>-0.04913892809466992</v>
       </c>
     </row>
     <row r="7">
@@ -4099,10 +4074,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1670073331276048</v>
+        <v>-0.1690444125668526</v>
       </c>
     </row>
     <row r="8">
@@ -4110,10 +4085,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3739045508253338</v>
+        <v>1.823430754601104</v>
       </c>
     </row>
     <row r="9">
@@ -4121,10 +4096,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.007283040256258156</v>
+        <v>-0.01714325349226205</v>
       </c>
     </row>
     <row r="10">
@@ -4132,10 +4107,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.2370304789616496</v>
+        <v>0.0009696279880508064</v>
       </c>
     </row>
     <row r="11">
@@ -4143,10 +4118,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.04429369838695822</v>
+        <v>-0.8359879731151052</v>
       </c>
     </row>
     <row r="12">
@@ -4154,10 +4129,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4530468053079125</v>
+        <v>-0.09563515752826771</v>
       </c>
     </row>
     <row r="13">
@@ -4165,10 +4140,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3856181622096784</v>
+        <v>-0.07280800127117307</v>
       </c>
     </row>
     <row r="14">
@@ -4176,10 +4151,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.3256685189820583</v>
+        <v>-0.1190462621355937</v>
       </c>
     </row>
     <row r="15">
@@ -4187,10 +4162,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.004884727217740882</v>
+        <v>0.1995446484675593</v>
       </c>
     </row>
     <row r="16">
@@ -4198,10 +4173,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="C16" t="n">
-        <v>0.412186426087322</v>
+        <v>1.040752653918521</v>
       </c>
     </row>
     <row r="17">
@@ -4209,10 +4184,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.05229571416800755</v>
+        <v>-0.7745562214258854</v>
       </c>
     </row>
     <row r="18">
@@ -4220,10 +4195,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.258157400926569</v>
+        <v>-1.294452748148677</v>
       </c>
     </row>
     <row r="19">
@@ -4231,10 +4206,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.2228433729224099</v>
+        <v>-0.001257426658909281</v>
       </c>
     </row>
     <row r="20">
@@ -4242,10 +4217,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="C20" t="n">
-        <v>0.5759403398666914</v>
+        <v>0.4071100726286121</v>
       </c>
     </row>
     <row r="21">
@@ -4253,10 +4228,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="C21" t="n">
-        <v>0.08755731325077519</v>
+        <v>0.3999629752008856</v>
       </c>
     </row>
     <row r="22">
@@ -4264,10 +4239,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.2982884770728684</v>
+        <v>-0.1306203616408043</v>
       </c>
     </row>
     <row r="23">
@@ -4275,10 +4250,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="C23" t="n">
-        <v>0.06843766665880879</v>
+        <v>0.2655661873335628</v>
       </c>
     </row>
     <row r="24">
@@ -4286,10 +4261,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="C24" t="n">
-        <v>0.006842363548458503</v>
+        <v>0.1084307431505016</v>
       </c>
     </row>
     <row r="25">
@@ -4297,10 +4272,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.2558595149770395</v>
+        <v>-1.251406752166689</v>
       </c>
     </row>
     <row r="26">
@@ -4308,10 +4283,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="C26" t="n">
-        <v>0.3494226930397405</v>
+        <v>1.081459724775518</v>
       </c>
     </row>
     <row r="27">
@@ -4319,10 +4294,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.3100826949677711</v>
+        <v>0.03427453438794971</v>
       </c>
     </row>
     <row r="28">
@@ -4330,10 +4305,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.3296664331678348</v>
+        <v>-0.01036391422428577</v>
       </c>
     </row>
     <row r="29">
@@ -4341,10 +4316,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="C29" t="n">
-        <v>0.5731492963486371</v>
+        <v>0.1075443454442456</v>
       </c>
     </row>
     <row r="30">
@@ -4352,10 +4327,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.05886291784523361</v>
+        <v>0.1251898517361368</v>
       </c>
     </row>
     <row r="31">
@@ -4363,10 +4338,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="C31" t="n">
-        <v>0.3420002900679571</v>
+        <v>1.202100602785434</v>
       </c>
     </row>
     <row r="32">
@@ -4374,10 +4349,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.2892900843869136</v>
+        <v>0.03302958163838938</v>
       </c>
     </row>
     <row r="33">
@@ -4385,10 +4360,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.310581170023987</v>
+        <v>-1.506404393944232</v>
       </c>
     </row>
     <row r="34">
@@ -4396,10 +4371,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="C34" t="n">
-        <v>0.5616976620557812</v>
+        <v>0.30624699754156</v>
       </c>
     </row>
     <row r="35">
@@ -4407,10 +4382,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="C35" t="n">
-        <v>0.1280325911771241</v>
+        <v>-0.3078307030348743</v>
       </c>
     </row>
     <row r="36">
@@ -4418,10 +4393,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="C36" t="n">
-        <v>0.3902154650504177</v>
+        <v>-0.06076496404412843</v>
       </c>
     </row>
     <row r="37">
@@ -4429,10 +4404,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="C37" t="n">
-        <v>0.5775070324422936</v>
+        <v>-0.02524444315961749</v>
       </c>
     </row>
     <row r="38">
@@ -4440,10 +4415,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.1762556699689213</v>
+        <v>-0.08286661598080405</v>
       </c>
     </row>
     <row r="39">
@@ -4451,10 +4426,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.003716543189540854</v>
+        <v>-0.2422555103192029</v>
       </c>
     </row>
     <row r="40">
@@ -4462,10 +4437,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.1454454340316026</v>
+        <v>-0.08719520933251947</v>
       </c>
     </row>
     <row r="41">
@@ -4473,21 +4448,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.1503984168084744</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>1981</v>
-      </c>
-      <c r="C42" t="n">
-        <v>0.01121819492259541</v>
+        <v>0.1425069190283252</v>
       </c>
     </row>
   </sheetData>
@@ -4529,7 +4493,7 @@
         <v>2021</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.07760595366452962</v>
+        <v>1.426255100238915</v>
       </c>
     </row>
     <row r="3">
@@ -4540,7 +4504,7 @@
         <v>2020</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5778934574261492</v>
+        <v>-0.8866107378966803</v>
       </c>
     </row>
     <row r="4">
@@ -4551,7 +4515,7 @@
         <v>2019</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1956613319030732</v>
+        <v>-0.03507568336503811</v>
       </c>
     </row>
     <row r="5">
@@ -4562,7 +4526,7 @@
         <v>2018</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1869198574051881</v>
+        <v>0.1762298296037638</v>
       </c>
     </row>
     <row r="6">
@@ -4573,7 +4537,7 @@
         <v>2017</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4624383611011018</v>
+        <v>-2.146604808527622</v>
       </c>
     </row>
     <row r="7">
@@ -4584,7 +4548,7 @@
         <v>2016</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1670073331276048</v>
+        <v>-0.6889392517302338</v>
       </c>
     </row>
     <row r="8">
@@ -4595,7 +4559,7 @@
         <v>2015</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3739045508253338</v>
+        <v>0.1456888302733041</v>
       </c>
     </row>
     <row r="9">
@@ -4606,7 +4570,7 @@
         <v>2014</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.007283040256258156</v>
+        <v>-0.07602019994846861</v>
       </c>
     </row>
     <row r="10">
@@ -4617,7 +4581,7 @@
         <v>2013</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.2370304789616496</v>
+        <v>0.1635861986981038</v>
       </c>
     </row>
     <row r="11">
@@ -4628,7 +4592,7 @@
         <v>2012</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.04429369838695822</v>
+        <v>0.7536261095961624</v>
       </c>
     </row>
     <row r="12">
@@ -4639,7 +4603,7 @@
         <v>2011</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4530468053079125</v>
+        <v>-2.812796938657228</v>
       </c>
     </row>
     <row r="13">
@@ -4650,7 +4614,7 @@
         <v>2010</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3856181622096784</v>
+        <v>-1.133460049543159</v>
       </c>
     </row>
     <row r="14">
@@ -4661,7 +4625,7 @@
         <v>2009</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.3256685189820583</v>
+        <v>9.432823477345645</v>
       </c>
     </row>
     <row r="15">
@@ -4672,7 +4636,7 @@
         <v>2008</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.004884727217740882</v>
+        <v>0.5628421662249875</v>
       </c>
     </row>
     <row r="16">
@@ -4683,7 +4647,7 @@
         <v>2007</v>
       </c>
       <c r="C16" t="n">
-        <v>0.412186426087322</v>
+        <v>-0.8210475651317092</v>
       </c>
     </row>
     <row r="17">
@@ -4694,7 +4658,7 @@
         <v>2006</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.05229571416800755</v>
+        <v>0.3059730178521008</v>
       </c>
     </row>
     <row r="18">
@@ -4705,7 +4669,7 @@
         <v>2005</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.258157400926569</v>
+        <v>2.258435389838522</v>
       </c>
     </row>
     <row r="19">
@@ -4716,7 +4680,7 @@
         <v>2004</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.2228433729224099</v>
+        <v>0.1915315774408778</v>
       </c>
     </row>
     <row r="20">
@@ -4727,7 +4691,7 @@
         <v>2003</v>
       </c>
       <c r="C20" t="n">
-        <v>0.5759403398666914</v>
+        <v>-0.9386379489062311</v>
       </c>
     </row>
     <row r="21">
@@ -4738,7 +4702,7 @@
         <v>2002</v>
       </c>
       <c r="C21" t="n">
-        <v>0.08755731325077519</v>
+        <v>-0.1697986225955992</v>
       </c>
     </row>
     <row r="22">
@@ -4749,7 +4713,7 @@
         <v>2001</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.2982884770728684</v>
+        <v>-0.04106478811797829</v>
       </c>
     </row>
     <row r="23">
@@ -4760,7 +4724,7 @@
         <v>2000</v>
       </c>
       <c r="C23" t="n">
-        <v>0.06843766665880879</v>
+        <v>-0.3346288132846986</v>
       </c>
     </row>
     <row r="24">
@@ -4771,7 +4735,7 @@
         <v>1999</v>
       </c>
       <c r="C24" t="n">
-        <v>0.006842363548458503</v>
+        <v>-0.002429286024305079</v>
       </c>
     </row>
     <row r="25">
@@ -4782,7 +4746,7 @@
         <v>1998</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.2558595149770395</v>
+        <v>1.981341209018459</v>
       </c>
     </row>
     <row r="26">
@@ -4793,7 +4757,7 @@
         <v>1997</v>
       </c>
       <c r="C26" t="n">
-        <v>0.3494226930397405</v>
+        <v>-0.6426165703497718</v>
       </c>
     </row>
     <row r="27">
@@ -4804,7 +4768,7 @@
         <v>1996</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.3100826949677711</v>
+        <v>0.09917485968371202</v>
       </c>
     </row>
     <row r="28">
@@ -4815,7 +4779,7 @@
         <v>1995</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.3296664331678348</v>
+        <v>1.299025198240478</v>
       </c>
     </row>
     <row r="29">
@@ -4826,7 +4790,7 @@
         <v>1994</v>
       </c>
       <c r="C29" t="n">
-        <v>0.5731492963486371</v>
+        <v>-0.7737563300007388</v>
       </c>
     </row>
     <row r="30">
@@ -4837,7 +4801,7 @@
         <v>1993</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.05886291784523361</v>
+        <v>-0.193196056708839</v>
       </c>
     </row>
     <row r="31">
@@ -4848,7 +4812,7 @@
         <v>1992</v>
       </c>
       <c r="C31" t="n">
-        <v>0.3420002900679571</v>
+        <v>0.02266355736263079</v>
       </c>
     </row>
     <row r="32">
@@ -4859,7 +4823,7 @@
         <v>1991</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.2892900843869136</v>
+        <v>0.2805192669759</v>
       </c>
     </row>
     <row r="33">
@@ -4870,7 +4834,7 @@
         <v>1990</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.310581170023987</v>
+        <v>0.1945375673140612</v>
       </c>
     </row>
     <row r="34">
@@ -4881,7 +4845,7 @@
         <v>1989</v>
       </c>
       <c r="C34" t="n">
-        <v>0.5616976620557812</v>
+        <v>0.03721761361832629</v>
       </c>
     </row>
     <row r="35">
@@ -4892,7 +4856,7 @@
         <v>1988</v>
       </c>
       <c r="C35" t="n">
-        <v>0.1280325911771241</v>
+        <v>-0.6242706729200888</v>
       </c>
     </row>
     <row r="36">
@@ -4903,7 +4867,7 @@
         <v>1987</v>
       </c>
       <c r="C36" t="n">
-        <v>0.3902154650504177</v>
+        <v>-0.5260146098542635</v>
       </c>
     </row>
     <row r="37">
@@ -4914,7 +4878,7 @@
         <v>1986</v>
       </c>
       <c r="C37" t="n">
-        <v>0.5775070324422936</v>
+        <v>-1.319264455252228</v>
       </c>
     </row>
     <row r="38">
@@ -4925,7 +4889,7 @@
         <v>1985</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.1762556699689213</v>
+        <v>-0.1256150405291009</v>
       </c>
     </row>
     <row r="39">
@@ -4936,7 +4900,7 @@
         <v>1984</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.003716543189540854</v>
+        <v>-0.1158396752598064</v>
       </c>
     </row>
     <row r="40">
@@ -4947,7 +4911,7 @@
         <v>1983</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.1454454340316026</v>
+        <v>0.1813103283779753</v>
       </c>
     </row>
     <row r="41">
@@ -4958,7 +4922,7 @@
         <v>1982</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.1503984168084744</v>
+        <v>0.02052842108229224</v>
       </c>
     </row>
     <row r="42">
@@ -4969,7 +4933,7 @@
         <v>1981</v>
       </c>
       <c r="C42" t="n">
-        <v>0.01121819492259541</v>
+        <v>0.007431498613052478</v>
       </c>
     </row>
   </sheetData>
